--- a/level 1/hackerrank - phase 1-functional-programming.xlsx
+++ b/level 1/hackerrank - phase 1-functional-programming.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="62805" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="713"/>
+    <workbookView xWindow="64725" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="713"/>
   </bookViews>
   <sheets>
-    <sheet name="level 2 - data structures" sheetId="14" r:id="rId1"/>
+    <sheet name="level 1-functional programming" sheetId="14" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="110">
   <si>
     <t>Problem Link</t>
   </si>
@@ -2753,7 +2753,7 @@
       <c r="E86" s="10"/>
       <c r="F86" s="10"/>
       <c r="G86" s="8">
-        <f t="shared" ref="G86:G121" si="3">SUM(C86:F86)</f>
+        <f t="shared" ref="G86:G93" si="3">SUM(C86:F86)</f>
         <v>0</v>
       </c>
       <c r="I86" s="13" t="s">
@@ -2900,10 +2900,7 @@
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
-      <c r="G94" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G94" s="8"/>
       <c r="I94" s="13"/>
     </row>
     <row r="95" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2913,10 +2910,7 @@
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G95" s="8"/>
       <c r="I95" s="13"/>
     </row>
     <row r="96" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2926,10 +2920,7 @@
       <c r="D96" s="10"/>
       <c r="E96" s="10"/>
       <c r="F96" s="10"/>
-      <c r="G96" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G96" s="8"/>
       <c r="I96" s="13"/>
     </row>
     <row r="97" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2939,10 +2930,7 @@
       <c r="D97" s="10"/>
       <c r="E97" s="10"/>
       <c r="F97" s="10"/>
-      <c r="G97" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G97" s="8"/>
       <c r="I97" s="13"/>
     </row>
     <row r="98" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2952,10 +2940,7 @@
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
-      <c r="G98" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G98" s="8"/>
       <c r="I98" s="13"/>
     </row>
     <row r="99" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2965,10 +2950,7 @@
       <c r="D99" s="10"/>
       <c r="E99" s="10"/>
       <c r="F99" s="10"/>
-      <c r="G99" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G99" s="8"/>
       <c r="I99" s="13"/>
     </row>
     <row r="100" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2978,10 +2960,7 @@
       <c r="D100" s="10"/>
       <c r="E100" s="10"/>
       <c r="F100" s="10"/>
-      <c r="G100" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G100" s="8"/>
       <c r="I100" s="13"/>
     </row>
     <row r="101" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2991,10 +2970,7 @@
       <c r="D101" s="10"/>
       <c r="E101" s="10"/>
       <c r="F101" s="10"/>
-      <c r="G101" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G101" s="8"/>
       <c r="I101" s="13"/>
     </row>
     <row r="102" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3004,10 +2980,7 @@
       <c r="D102" s="10"/>
       <c r="E102" s="10"/>
       <c r="F102" s="10"/>
-      <c r="G102" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G102" s="8"/>
       <c r="I102" s="13"/>
     </row>
     <row r="103" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3017,55 +2990,37 @@
       <c r="D103" s="10"/>
       <c r="E103" s="10"/>
       <c r="F103" s="10"/>
-      <c r="G103" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G103" s="8"/>
       <c r="I103" s="13"/>
     </row>
     <row r="104" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
-      <c r="B104" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B104" s="5"/>
       <c r="C104" s="10"/>
       <c r="D104" s="10"/>
       <c r="E104" s="10"/>
       <c r="F104" s="10"/>
-      <c r="G104" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G104" s="8"/>
       <c r="I104" s="13"/>
     </row>
     <row r="105" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
-      <c r="B105" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="B105" s="5"/>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
-      <c r="G105" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G105" s="8"/>
       <c r="I105" s="13"/>
     </row>
     <row r="106" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
-      <c r="B106" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="B106" s="5"/>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
-      <c r="G106" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G106" s="8"/>
       <c r="I106" s="13"/>
     </row>
     <row r="107" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3075,10 +3030,7 @@
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
-      <c r="G107" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G107" s="8"/>
       <c r="I107" s="13"/>
     </row>
     <row r="108" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3088,10 +3040,7 @@
       <c r="D108" s="10"/>
       <c r="E108" s="10"/>
       <c r="F108" s="10"/>
-      <c r="G108" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G108" s="8"/>
       <c r="I108" s="13"/>
     </row>
     <row r="109" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3101,10 +3050,7 @@
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
-      <c r="G109" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G109" s="8"/>
       <c r="I109" s="13"/>
     </row>
     <row r="110" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3114,10 +3060,7 @@
       <c r="D110" s="10"/>
       <c r="E110" s="10"/>
       <c r="F110" s="10"/>
-      <c r="G110" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G110" s="8"/>
       <c r="I110" s="13"/>
     </row>
     <row r="111" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3127,10 +3070,7 @@
       <c r="D111" s="9"/>
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>
-      <c r="G111" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G111" s="8"/>
       <c r="I111" s="13"/>
     </row>
     <row r="112" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3140,10 +3080,7 @@
       <c r="D112" s="10"/>
       <c r="E112" s="10"/>
       <c r="F112" s="10"/>
-      <c r="G112" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G112" s="8"/>
       <c r="I112" s="13"/>
     </row>
     <row r="113" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3153,10 +3090,7 @@
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
-      <c r="G113" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G113" s="8"/>
       <c r="I113" s="13"/>
     </row>
     <row r="114" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3166,10 +3100,7 @@
       <c r="D114" s="10"/>
       <c r="E114" s="10"/>
       <c r="F114" s="10"/>
-      <c r="G114" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G114" s="8"/>
       <c r="I114" s="13"/>
     </row>
     <row r="115" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3179,10 +3110,7 @@
       <c r="D115" s="10"/>
       <c r="E115" s="10"/>
       <c r="F115" s="10"/>
-      <c r="G115" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G115" s="8"/>
       <c r="I115" s="13"/>
     </row>
     <row r="116" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3192,10 +3120,7 @@
       <c r="D116" s="10"/>
       <c r="E116" s="10"/>
       <c r="F116" s="10"/>
-      <c r="G116" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G116" s="8"/>
       <c r="I116" s="13"/>
     </row>
     <row r="117" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3205,10 +3130,7 @@
       <c r="D117" s="10"/>
       <c r="E117" s="10"/>
       <c r="F117" s="10"/>
-      <c r="G117" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G117" s="8"/>
       <c r="I117" s="13"/>
     </row>
     <row r="118" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3218,10 +3140,7 @@
       <c r="D118" s="10"/>
       <c r="E118" s="10"/>
       <c r="F118" s="10"/>
-      <c r="G118" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G118" s="8"/>
       <c r="I118" s="13"/>
     </row>
     <row r="119" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3231,10 +3150,7 @@
       <c r="D119" s="10"/>
       <c r="E119" s="10"/>
       <c r="F119" s="10"/>
-      <c r="G119" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G119" s="8"/>
       <c r="I119" s="13"/>
     </row>
     <row r="120" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3244,10 +3160,7 @@
       <c r="D120" s="10"/>
       <c r="E120" s="10"/>
       <c r="F120" s="10"/>
-      <c r="G120" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G120" s="8"/>
       <c r="I120" s="13"/>
     </row>
     <row r="121" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3257,10 +3170,7 @@
       <c r="D121" s="10"/>
       <c r="E121" s="10"/>
       <c r="F121" s="10"/>
-      <c r="G121" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G121" s="8"/>
       <c r="I121" s="13"/>
     </row>
     <row r="122" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3270,10 +3180,7 @@
       <c r="D122" s="9"/>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
-      <c r="G122" s="8">
-        <f t="shared" ref="G122:G165" si="4">SUM(C122:F122)</f>
-        <v>0</v>
-      </c>
+      <c r="G122" s="8"/>
       <c r="I122" s="13"/>
     </row>
     <row r="123" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3283,10 +3190,7 @@
       <c r="D123" s="10"/>
       <c r="E123" s="10"/>
       <c r="F123" s="10"/>
-      <c r="G123" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G123" s="8"/>
       <c r="I123" s="13"/>
     </row>
     <row r="124" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3296,10 +3200,7 @@
       <c r="D124" s="9"/>
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
-      <c r="G124" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G124" s="8"/>
       <c r="I124" s="13"/>
     </row>
     <row r="125" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3309,10 +3210,7 @@
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
-      <c r="G125" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G125" s="8"/>
       <c r="I125" s="13"/>
     </row>
     <row r="126" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3322,10 +3220,7 @@
       <c r="D126" s="10"/>
       <c r="E126" s="10"/>
       <c r="F126" s="10"/>
-      <c r="G126" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G126" s="8"/>
       <c r="I126" s="13"/>
     </row>
     <row r="127" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3335,10 +3230,7 @@
       <c r="D127" s="10"/>
       <c r="E127" s="10"/>
       <c r="F127" s="10"/>
-      <c r="G127" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G127" s="8"/>
       <c r="I127" s="13"/>
     </row>
     <row r="128" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3348,10 +3240,7 @@
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
-      <c r="G128" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G128" s="8"/>
       <c r="I128" s="13"/>
     </row>
     <row r="129" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3361,10 +3250,7 @@
       <c r="D129" s="10"/>
       <c r="E129" s="10"/>
       <c r="F129" s="10"/>
-      <c r="G129" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G129" s="8"/>
       <c r="I129" s="13"/>
     </row>
     <row r="130" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3374,10 +3260,7 @@
       <c r="D130" s="9"/>
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
-      <c r="G130" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G130" s="8"/>
       <c r="I130" s="13"/>
     </row>
     <row r="131" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3387,10 +3270,7 @@
       <c r="D131" s="10"/>
       <c r="E131" s="10"/>
       <c r="F131" s="10"/>
-      <c r="G131" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G131" s="8"/>
       <c r="I131" s="13"/>
     </row>
     <row r="132" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3400,10 +3280,7 @@
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
-      <c r="G132" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G132" s="8"/>
       <c r="I132" s="13"/>
     </row>
     <row r="133" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3413,10 +3290,7 @@
       <c r="D133" s="10"/>
       <c r="E133" s="10"/>
       <c r="F133" s="10"/>
-      <c r="G133" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G133" s="8"/>
       <c r="I133" s="13"/>
     </row>
     <row r="134" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3426,10 +3300,7 @@
       <c r="D134" s="9"/>
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
-      <c r="G134" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G134" s="8"/>
       <c r="I134" s="13"/>
     </row>
     <row r="135" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3439,10 +3310,7 @@
       <c r="D135" s="10"/>
       <c r="E135" s="10"/>
       <c r="F135" s="10"/>
-      <c r="G135" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G135" s="8"/>
       <c r="I135" s="13"/>
     </row>
     <row r="136" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3452,10 +3320,7 @@
       <c r="D136" s="10"/>
       <c r="E136" s="10"/>
       <c r="F136" s="10"/>
-      <c r="G136" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G136" s="8"/>
       <c r="I136" s="13"/>
     </row>
     <row r="137" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3465,10 +3330,7 @@
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
-      <c r="G137" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G137" s="8"/>
       <c r="I137" s="13"/>
     </row>
     <row r="138" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3478,10 +3340,7 @@
       <c r="D138" s="10"/>
       <c r="E138" s="10"/>
       <c r="F138" s="10"/>
-      <c r="G138" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G138" s="8"/>
       <c r="I138" s="13"/>
     </row>
     <row r="139" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3491,10 +3350,7 @@
       <c r="D139" s="10"/>
       <c r="E139" s="10"/>
       <c r="F139" s="10"/>
-      <c r="G139" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G139" s="8"/>
       <c r="I139" s="13"/>
     </row>
     <row r="140" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3504,10 +3360,7 @@
       <c r="D140" s="10"/>
       <c r="E140" s="10"/>
       <c r="F140" s="10"/>
-      <c r="G140" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G140" s="8"/>
       <c r="I140" s="13"/>
     </row>
     <row r="141" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3517,10 +3370,7 @@
       <c r="D141" s="10"/>
       <c r="E141" s="10"/>
       <c r="F141" s="10"/>
-      <c r="G141" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G141" s="8"/>
       <c r="I141" s="13"/>
     </row>
     <row r="142" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3530,10 +3380,7 @@
       <c r="D142" s="10"/>
       <c r="E142" s="10"/>
       <c r="F142" s="10"/>
-      <c r="G142" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G142" s="8"/>
       <c r="I142" s="13"/>
     </row>
     <row r="143" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3543,10 +3390,7 @@
       <c r="D143" s="10"/>
       <c r="E143" s="10"/>
       <c r="F143" s="10"/>
-      <c r="G143" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G143" s="8"/>
       <c r="I143" s="13"/>
     </row>
     <row r="144" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3556,10 +3400,7 @@
       <c r="D144" s="10"/>
       <c r="E144" s="10"/>
       <c r="F144" s="10"/>
-      <c r="G144" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G144" s="8"/>
       <c r="I144" s="13"/>
     </row>
     <row r="145" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3568,10 +3409,7 @@
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
-      <c r="G145" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G145" s="8"/>
       <c r="I145" s="14"/>
     </row>
     <row r="146" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3580,10 +3418,7 @@
       <c r="D146" s="10"/>
       <c r="E146" s="10"/>
       <c r="F146" s="10"/>
-      <c r="G146" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G146" s="8"/>
       <c r="I146" s="14"/>
     </row>
     <row r="147" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3592,10 +3427,7 @@
       <c r="D147" s="10"/>
       <c r="E147" s="10"/>
       <c r="F147" s="10"/>
-      <c r="G147" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G147" s="8"/>
       <c r="I147" s="14"/>
     </row>
     <row r="148" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3604,10 +3436,7 @@
       <c r="D148" s="10"/>
       <c r="E148" s="10"/>
       <c r="F148" s="10"/>
-      <c r="G148" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G148" s="8"/>
       <c r="I148" s="14"/>
     </row>
     <row r="149" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3616,10 +3445,7 @@
       <c r="D149" s="10"/>
       <c r="E149" s="10"/>
       <c r="F149" s="10"/>
-      <c r="G149" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G149" s="8"/>
       <c r="I149" s="14"/>
     </row>
     <row r="150" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3628,10 +3454,7 @@
       <c r="D150" s="10"/>
       <c r="E150" s="10"/>
       <c r="F150" s="10"/>
-      <c r="G150" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G150" s="8"/>
       <c r="I150" s="14"/>
     </row>
     <row r="151" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3640,10 +3463,7 @@
       <c r="D151" s="10"/>
       <c r="E151" s="10"/>
       <c r="F151" s="10"/>
-      <c r="G151" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G151" s="8"/>
       <c r="I151" s="14"/>
     </row>
     <row r="152" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3652,10 +3472,7 @@
       <c r="D152" s="10"/>
       <c r="E152" s="10"/>
       <c r="F152" s="10"/>
-      <c r="G152" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G152" s="8"/>
     </row>
     <row r="153" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="5"/>
@@ -3663,10 +3480,7 @@
       <c r="D153" s="10"/>
       <c r="E153" s="10"/>
       <c r="F153" s="10"/>
-      <c r="G153" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G153" s="8"/>
     </row>
     <row r="154" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="5"/>
@@ -3674,10 +3488,7 @@
       <c r="D154" s="10"/>
       <c r="E154" s="10"/>
       <c r="F154" s="10"/>
-      <c r="G154" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G154" s="8"/>
     </row>
     <row r="155" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="5"/>
@@ -3685,10 +3496,7 @@
       <c r="D155" s="10"/>
       <c r="E155" s="10"/>
       <c r="F155" s="10"/>
-      <c r="G155" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G155" s="8"/>
     </row>
     <row r="156" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="5"/>
@@ -3696,10 +3504,7 @@
       <c r="D156" s="10"/>
       <c r="E156" s="10"/>
       <c r="F156" s="10"/>
-      <c r="G156" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G156" s="8"/>
     </row>
     <row r="157" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="5"/>
@@ -3707,10 +3512,7 @@
       <c r="D157" s="10"/>
       <c r="E157" s="10"/>
       <c r="F157" s="10"/>
-      <c r="G157" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G157" s="8"/>
     </row>
     <row r="158" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="5"/>
@@ -3718,10 +3520,7 @@
       <c r="D158" s="10"/>
       <c r="E158" s="10"/>
       <c r="F158" s="10"/>
-      <c r="G158" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G158" s="8"/>
     </row>
     <row r="159" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="5"/>
@@ -3729,10 +3528,7 @@
       <c r="D159" s="9"/>
       <c r="E159" s="9"/>
       <c r="F159" s="9"/>
-      <c r="G159" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G159" s="8"/>
     </row>
     <row r="160" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="5"/>
@@ -3740,10 +3536,7 @@
       <c r="D160" s="10"/>
       <c r="E160" s="10"/>
       <c r="F160" s="10"/>
-      <c r="G160" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G160" s="8"/>
     </row>
     <row r="161" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="5"/>
@@ -3751,10 +3544,7 @@
       <c r="D161" s="10"/>
       <c r="E161" s="10"/>
       <c r="F161" s="10"/>
-      <c r="G161" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G161" s="8"/>
     </row>
     <row r="162" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="5"/>
@@ -3762,10 +3552,7 @@
       <c r="D162" s="10"/>
       <c r="E162" s="10"/>
       <c r="F162" s="10"/>
-      <c r="G162" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G162" s="8"/>
     </row>
     <row r="163" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="5"/>
@@ -3773,10 +3560,7 @@
       <c r="D163" s="10"/>
       <c r="E163" s="10"/>
       <c r="F163" s="10"/>
-      <c r="G163" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G163" s="8"/>
     </row>
     <row r="164" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="5"/>
@@ -3784,10 +3568,7 @@
       <c r="D164" s="10"/>
       <c r="E164" s="10"/>
       <c r="F164" s="10"/>
-      <c r="G164" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G164" s="8"/>
     </row>
     <row r="165" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="5"/>
@@ -3795,10 +3576,7 @@
       <c r="D165" s="9"/>
       <c r="E165" s="9"/>
       <c r="F165" s="9"/>
-      <c r="G165" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G165" s="8"/>
     </row>
     <row r="166" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="5"/>
@@ -3806,10 +3584,7 @@
       <c r="D166" s="10"/>
       <c r="E166" s="10"/>
       <c r="F166" s="10"/>
-      <c r="G166" s="8">
-        <f t="shared" ref="G166:G204" si="5">SUM(C166:F166)</f>
-        <v>0</v>
-      </c>
+      <c r="G166" s="8"/>
     </row>
     <row r="167" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="5"/>
@@ -3817,380 +3592,266 @@
       <c r="D167" s="10"/>
       <c r="E167" s="10"/>
       <c r="F167" s="10"/>
-      <c r="G167" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G167" s="8"/>
     </row>
     <row r="168" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
       <c r="E168" s="9"/>
       <c r="F168" s="9"/>
-      <c r="G168" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G168" s="8"/>
     </row>
     <row r="169" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C169" s="10"/>
       <c r="D169" s="10"/>
       <c r="E169" s="10"/>
       <c r="F169" s="10"/>
-      <c r="G169" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G169" s="8"/>
     </row>
     <row r="170" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C170" s="10"/>
       <c r="D170" s="10"/>
       <c r="E170" s="10"/>
       <c r="F170" s="10"/>
-      <c r="G170" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G170" s="8"/>
     </row>
     <row r="171" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C171" s="10"/>
       <c r="D171" s="10"/>
       <c r="E171" s="10"/>
       <c r="F171" s="10"/>
-      <c r="G171" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G171" s="8"/>
     </row>
     <row r="172" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C172" s="9"/>
       <c r="D172" s="9"/>
       <c r="E172" s="9"/>
       <c r="F172" s="9"/>
-      <c r="G172" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G172" s="8"/>
     </row>
     <row r="173" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
       <c r="E173" s="9"/>
       <c r="F173" s="9"/>
-      <c r="G173" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G173" s="8"/>
     </row>
     <row r="174" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C174" s="10"/>
       <c r="D174" s="10"/>
       <c r="E174" s="10"/>
       <c r="F174" s="10"/>
-      <c r="G174" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G174" s="8"/>
     </row>
     <row r="175" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C175" s="10"/>
       <c r="D175" s="10"/>
       <c r="E175" s="10"/>
       <c r="F175" s="10"/>
-      <c r="G175" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G175" s="8"/>
     </row>
     <row r="176" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C176" s="10"/>
       <c r="D176" s="10"/>
       <c r="E176" s="10"/>
       <c r="F176" s="10"/>
-      <c r="G176" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G176" s="8"/>
     </row>
     <row r="177" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C177" s="9"/>
       <c r="D177" s="9"/>
       <c r="E177" s="9"/>
       <c r="F177" s="9"/>
-      <c r="G177" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G177" s="8"/>
     </row>
     <row r="178" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C178" s="9"/>
       <c r="D178" s="9"/>
       <c r="E178" s="9"/>
       <c r="F178" s="9"/>
-      <c r="G178" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G178" s="8"/>
     </row>
     <row r="179" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C179" s="10"/>
       <c r="D179" s="10"/>
       <c r="E179" s="10"/>
       <c r="F179" s="10"/>
-      <c r="G179" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G179" s="8"/>
     </row>
     <row r="180" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C180" s="10"/>
       <c r="D180" s="10"/>
       <c r="E180" s="10"/>
       <c r="F180" s="10"/>
-      <c r="G180" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G180" s="8"/>
     </row>
     <row r="181" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C181" s="10"/>
       <c r="D181" s="10"/>
       <c r="E181" s="10"/>
       <c r="F181" s="10"/>
-      <c r="G181" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G181" s="8"/>
     </row>
     <row r="182" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C182" s="10"/>
       <c r="D182" s="10"/>
       <c r="E182" s="10"/>
       <c r="F182" s="10"/>
-      <c r="G182" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G182" s="8"/>
     </row>
     <row r="183" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C183" s="9"/>
       <c r="D183" s="9"/>
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
-      <c r="G183" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G183" s="8"/>
     </row>
     <row r="184" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C184" s="10"/>
       <c r="D184" s="10"/>
       <c r="E184" s="10"/>
       <c r="F184" s="10"/>
-      <c r="G184" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G184" s="8"/>
     </row>
     <row r="185" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C185" s="10"/>
       <c r="D185" s="10"/>
       <c r="E185" s="10"/>
       <c r="F185" s="10"/>
-      <c r="G185" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G185" s="8"/>
     </row>
     <row r="186" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C186" s="10"/>
       <c r="D186" s="10"/>
       <c r="E186" s="10"/>
       <c r="F186" s="10"/>
-      <c r="G186" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G186" s="8"/>
     </row>
     <row r="187" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C187" s="10"/>
       <c r="D187" s="10"/>
       <c r="E187" s="10"/>
       <c r="F187" s="10"/>
-      <c r="G187" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G187" s="8"/>
     </row>
     <row r="188" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C188" s="10"/>
       <c r="D188" s="10"/>
       <c r="E188" s="10"/>
       <c r="F188" s="10"/>
-      <c r="G188" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G188" s="8"/>
     </row>
     <row r="189" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C189" s="10"/>
       <c r="D189" s="10"/>
       <c r="E189" s="10"/>
       <c r="F189" s="10"/>
-      <c r="G189" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G189" s="8"/>
     </row>
     <row r="190" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C190" s="10"/>
       <c r="D190" s="10"/>
       <c r="E190" s="10"/>
       <c r="F190" s="10"/>
-      <c r="G190" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G190" s="8"/>
     </row>
     <row r="191" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C191" s="10"/>
       <c r="D191" s="10"/>
       <c r="E191" s="10"/>
       <c r="F191" s="10"/>
-      <c r="G191" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G191" s="8"/>
     </row>
     <row r="192" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C192" s="10"/>
       <c r="D192" s="10"/>
       <c r="E192" s="10"/>
       <c r="F192" s="10"/>
-      <c r="G192" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G192" s="8"/>
     </row>
     <row r="193" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C193" s="10"/>
       <c r="D193" s="10"/>
       <c r="E193" s="10"/>
       <c r="F193" s="10"/>
-      <c r="G193" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G193" s="8"/>
     </row>
     <row r="194" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C194" s="10"/>
       <c r="D194" s="10"/>
       <c r="E194" s="10"/>
       <c r="F194" s="10"/>
-      <c r="G194" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G194" s="8"/>
     </row>
     <row r="195" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C195" s="10"/>
       <c r="D195" s="10"/>
       <c r="E195" s="10"/>
       <c r="F195" s="10"/>
-      <c r="G195" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G195" s="8"/>
     </row>
     <row r="196" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C196" s="10"/>
       <c r="D196" s="10"/>
       <c r="E196" s="10"/>
       <c r="F196" s="10"/>
-      <c r="G196" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G196" s="8"/>
     </row>
     <row r="197" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C197" s="10"/>
       <c r="D197" s="10"/>
       <c r="E197" s="10"/>
       <c r="F197" s="10"/>
-      <c r="G197" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G197" s="8"/>
     </row>
     <row r="198" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C198" s="10"/>
       <c r="D198" s="10"/>
       <c r="E198" s="10"/>
       <c r="F198" s="10"/>
-      <c r="G198" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G198" s="8"/>
     </row>
     <row r="199" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C199" s="10"/>
       <c r="D199" s="10"/>
       <c r="E199" s="10"/>
       <c r="F199" s="10"/>
-      <c r="G199" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G199" s="8"/>
     </row>
     <row r="200" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C200" s="10"/>
       <c r="D200" s="10"/>
       <c r="E200" s="10"/>
       <c r="F200" s="10"/>
-      <c r="G200" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G200" s="8"/>
     </row>
     <row r="201" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C201" s="10"/>
       <c r="D201" s="10"/>
       <c r="E201" s="10"/>
       <c r="F201" s="10"/>
-      <c r="G201" s="8">
-        <f>SUM(C201:F201)</f>
-        <v>0</v>
-      </c>
+      <c r="G201" s="8"/>
     </row>
     <row r="202" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C202" s="10"/>
       <c r="D202" s="10"/>
       <c r="E202" s="10"/>
       <c r="F202" s="10"/>
-      <c r="G202" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G202" s="8"/>
     </row>
     <row r="203" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C203" s="10"/>
       <c r="D203" s="10"/>
       <c r="E203" s="10"/>
       <c r="F203" s="10"/>
-      <c r="G203" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G203" s="8"/>
     </row>
     <row r="204" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C204" s="10"/>
       <c r="D204" s="10"/>
       <c r="E204" s="10"/>
       <c r="F204" s="10"/>
-      <c r="G204" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G204" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="9">
